--- a/biology/Zoologie/Bêtes_comme_chien/Bêtes_comme_chien.xlsx
+++ b/biology/Zoologie/Bêtes_comme_chien/Bêtes_comme_chien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAtes_comme_chien</t>
+          <t>Bêtes_comme_chien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bêtes comme chien (2 Stupid Dogs) est une série télévisée d'animation américaine en 39 segments de 7 minutes créée par Donovan Cook, produite par Hanna-Barbera et Turner Program Services, diffusée entre le 5 septembre 1992 et le 13 février 1994 sur TBS. La série relate les aventures loufoques d'un grand et d'un petit chien.
-En France, la série a été diffusée à partir du 3 septembre 1994[1] dans l'émission Hanna-Barbera Dingue Dong sur France 2, puis rediffusée sur Cartoon Network, et au Québec à partir du 8 septembre 1997 sur Télétoon sous son titre anglophone[2].
-Une suite du remake Sans Secret, l'écureuil agent secret (Secret Squirrel) des studios Hanna-Barbera était montrée entre les épisodes de Bêtes comme chiens, similaire à celui de 1960[3].
+En France, la série a été diffusée à partir du 3 septembre 1994 dans l'émission Hanna-Barbera Dingue Dong sur France 2, puis rediffusée sur Cartoon Network, et au Québec à partir du 8 septembre 1997 sur Télétoon sous son titre anglophone.
+Une suite du remake Sans Secret, l'écureuil agent secret (Secret Squirrel) des studios Hanna-Barbera était montrée entre les épisodes de Bêtes comme chiens, similaire à celui de 1960.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%AAtes_comme_chien</t>
+          <t>Bêtes_comme_chien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux chiens stupides errent dans la ville et font des rencontres plus ou moins amusantes pour eux. Le petit chien est très bavard, toujours en mouvement et a une peur bleue des chats. Le gros chien gris, au contraire, parle peu, a un air très pataud et semble souvent désintéressé par ce que lui raconte son ami.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%AAtes_comme_chien</t>
+          <t>Bêtes_comme_chien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Voix originales
-Mark Schiff : Le petit chien
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mark Schiff : Le petit chien
 Brian Cummings : Hollywood
-Brad Garrett : Le gros chien
-Voix françaises
-Luq Hamet : Le petit chien
-Serge Lhorca : Hollywood, voix diverses</t>
+Brad Garrett : Le gros chien</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%AAtes_comme_chien</t>
+          <t>Bêtes_comme_chien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +593,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Luq Hamet : Le petit chien
+Serge Lhorca : Hollywood, voix diverses</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bêtes_comme_chien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%AAtes_comme_chien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (1992)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Première saison (1992)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Porte à clac
 Des cornflakes au petit déjeuner 
 Y'a un os 
@@ -607,7 +666,43 @@
 Les Poubelles
 Le Grand Amour
 L'Arche d'Hollywood
-Deuxième saison (1993-1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bêtes_comme_chien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/B%C3%AAtes_comme_chien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième saison (1993-1994)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jerk!
 Las Pelotas!
 Post Office
@@ -625,31 +720,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B%C3%AAtes_comme_chien</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bêtes_comme_chien</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/B%C3%AAtes_comme_chien</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bêtes Comme Chien a participé à la relance des studios Hanna-Barbera après une période creuse en termes de production. Avec des dessins vraiment simples et des traits épais, ce dessin animé tient surtout par les histoires amusantes et déconcertantes de ces deux chiens sans nom. 
 Notons qu'aux États-Unis, chaque couple d'épisodes se voyait accompagné d'un épisode mettant en scène Sans secret, écureuil agent secret avec de nouveaux graphismes et de nouveaux personnages.
